--- a/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -166,15 +168,59 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -210,10 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3311,4 +3359,2159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>3884335</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>9629741</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>134413201</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>34531914</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>7099591</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>22060352</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>59988301.5313</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>200988962.493</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>234821222.8068</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>490822324.7995</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>635172645.6615</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>484399410.4321</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>818208739.1847</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>427048072.1686</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>493093360.6319</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>603549841.4605</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>190030881.7112</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>4038446.6058</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>53534082.7699</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>29597880.455</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>5481141.2371</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>399491.8448</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>68808052.3</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>125026125.1038</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>43502362.1</v>
+      </c>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3" t="n">
+        <v>1117048</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1206092.038</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>3067452.1922</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>10101587.0394</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>3375417.6722</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>3072640.4668</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>1582563.4001</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>263030.07</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>-2174.75</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3" t="n">
+        <v>-80436.0899</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="n">
+        <v>9300150</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>37059271</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>98519393</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>228935207.0028</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>130202286.6913</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>282027461.0994</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>369050328.1592</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>326964434.9487</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>260471556.3069</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>264047753.3743</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>148976264.7458</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>157727390.8785</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>121691440.0098</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>153310516.4821</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>215027939.9617</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>85318044.9593</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>116633115.7901</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>5703180.2494</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>662147.4888</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>-1687582.9115</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>-585433.97</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="3" t="str">
+        <f>Sum(AK2:AK4)</f>
+      </c>
+      <c r="AL5" s="3" t="str">
+        <f>Sum(AL2:AL4)</f>
+      </c>
+      <c r="AM5" s="3" t="str">
+        <f>Sum(AM2:AM4)</f>
+      </c>
+      <c r="AN5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>6530240.64519346</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>15806138.0019651</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>217207035.361116</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>54751405.8879899</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>10988298.1286621</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>33135316.4771171</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>87269359.6114115</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>284559529.777242</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>325697382.756786</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>673880116.454176</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>864579893.25915</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>646377744.526513</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>1072350663.84527</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>549718002.233403</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>623362743.71882</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>755179675.541819</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>235886411.84063</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>4929731.77264706</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>63929812.9670497</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>34703806.2494172</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>6343822.04146752</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>446984.138356229</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>71955786.3819465</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>125026125.1038</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>42370807.8149438</v>
+      </c>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="n">
+        <v>1625051.23710402</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>1707581.24697175</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>4254560.71980805</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>13869089.2947129</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>4594527.59917966</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>4100100.80916371</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>2074119.75868834</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>338585.686322046</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>-2749.2930044023</v>
+      </c>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3" t="n">
+        <v>-98188.334959792</v>
+      </c>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>14394184.234173</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>55664146.8366528</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>143323350.002316</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>324125733.30459</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>180590763.890176</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>387212823.716964</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>502341364.204746</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>436298082.638049</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>341376024.16327</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>339895700.130528</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>188334016.547931</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>197353245.225695</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>151056275.049316</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>187146147.50565</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>256784001.390805</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>100036247.74241</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>134990086.682339</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>6381184.35420016</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>692438.481614093</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>-1687582.9115</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>-570206.053965276</v>
+      </c>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>36996706</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>94966258</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>291530223.6377</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>160501718.3391</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>200861920.6744</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>237874715.834</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>192876599.8727</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>288647889.7173</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>304173278</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>140137784.36</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>206834371.37</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>173556806.5216</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>131542289.3849</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>182718778.2243</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>73860367.6256</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>102091499.5712</v>
+      </c>
+      <c r="AJ2" s="4" t="n">
+        <v>-6209926.14</v>
+      </c>
+      <c r="AK2" s="4" t="n">
+        <v>-48733.5508</v>
+      </c>
+      <c r="AL2" s="4" t="n">
+        <v>-92232.0313</v>
+      </c>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="n">
+        <v>847731.625</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>25277721.2969</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>52677808.795</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>205455359.0377</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>239127301.4922</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>208521384.6559</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>154294432.0439</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>166517593.2435</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>82602100.3914</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>67450745.8785</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>39502117.7536</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>49968963.6842</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>41198620.9067</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>10672353.9961</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>9711701.0321</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>4544294.5094</v>
+      </c>
+      <c r="AK3" s="4" t="n">
+        <v>-689403.3997</v>
+      </c>
+      <c r="AL3" s="4" t="n">
+        <v>-1525872.512</v>
+      </c>
+      <c r="AM3" s="4" t="n">
+        <v>-445814.86</v>
+      </c>
+      <c r="AN3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4" t="n">
+        <v>1452000</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>825411</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2311174.48</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1296978.7</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>-1648.64</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1796251.5205</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>625609.4</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>9538495.2813</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>-18229.0098</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>222991</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>36762</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4" t="n">
+        <v>-16708</v>
+      </c>
+      <c r="AM4" s="4" t="n">
+        <v>26527155.39</v>
+      </c>
+      <c r="AN4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="n">
+        <v>428296.875</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>481263.9277</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>73591.6563</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>3826181.0469</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>316019.7286</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1358863.3166</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>443353.54</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="n">
+        <v>-15904.83</v>
+      </c>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4" t="n">
+        <v>5573798.23</v>
+      </c>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>3884335</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>9629741</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>134413201</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>34531914</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>16399741</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>22122917</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>63270887.0313</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>106662781.6715</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>145139686.6499</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>368115979.109</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>523443667.2745</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>401660597.3453</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>623700574.1113</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>207972333.09</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>407723606.9263</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>484260576.02</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>100395654.254</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>-32244458.5534</v>
+      </c>
+      <c r="AG7" s="4" t="n">
+        <v>50082302.0236</v>
+      </c>
+      <c r="AH7" s="4" t="n">
+        <v>54494430.5976</v>
+      </c>
+      <c r="AI7" s="4" t="n">
+        <v>11440351.0567</v>
+      </c>
+      <c r="AJ7" s="4" t="n">
+        <v>8052623.753</v>
+      </c>
+      <c r="AK7" s="4" t="n">
+        <v>70922225.5522</v>
+      </c>
+      <c r="AL7" s="4" t="n">
+        <v>126485665.8351</v>
+      </c>
+      <c r="AM7" s="4" t="n">
+        <v>17787845.09</v>
+      </c>
+      <c r="AN7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="n">
+        <v>111569</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>7178271</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>9698156.25</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>8518114.1172</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>1874525.8453</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>10236473.2451</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>9949925.2226</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>10955319.0394</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>11605607.59</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>-4638510.68</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>-2341961.3782</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>-1536762.799</v>
+      </c>
+      <c r="AG8" s="4" t="n">
+        <v>-5419449.4132</v>
+      </c>
+      <c r="AH8" s="4" t="n">
+        <v>-24334217.805</v>
+      </c>
+      <c r="AI8" s="4" t="n">
+        <v>-1166056.6328</v>
+      </c>
+      <c r="AJ8" s="4" t="n">
+        <v>-284320.0282</v>
+      </c>
+      <c r="AK8" s="4" t="n">
+        <v>-713888.8129</v>
+      </c>
+      <c r="AL8" s="4" t="n">
+        <v>-1512311.0995</v>
+      </c>
+      <c r="AM8" s="4" t="n">
+        <v>-952257.49</v>
+      </c>
+      <c r="AN8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="B9" t="str">
+        <f>N9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>Sum(O2:O9)</f>
+      </c>
+      <c r="P10" s="4" t="str">
+        <f>Sum(P2:P9)</f>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Sum(Q2:Q9)</f>
+      </c>
+      <c r="R10" s="4" t="str">
+        <f>Sum(R2:R9)</f>
+      </c>
+      <c r="S10" s="4" t="str">
+        <f>Sum(S2:S9)</f>
+      </c>
+      <c r="T10" s="4" t="str">
+        <f>Sum(T2:T9)</f>
+      </c>
+      <c r="U10" s="4" t="str">
+        <f>Sum(U2:U9)</f>
+      </c>
+      <c r="V10" s="4" t="str">
+        <f>Sum(V2:V9)</f>
+      </c>
+      <c r="W10" s="4" t="str">
+        <f>Sum(W2:W9)</f>
+      </c>
+      <c r="X10" s="4" t="str">
+        <f>Sum(X2:X9)</f>
+      </c>
+      <c r="Y10" s="4" t="str">
+        <f>Sum(Y2:Y9)</f>
+      </c>
+      <c r="Z10" s="4" t="str">
+        <f>Sum(Z2:Z9)</f>
+      </c>
+      <c r="AA10" s="4" t="str">
+        <f>Sum(AA2:AA9)</f>
+      </c>
+      <c r="AB10" s="4" t="str">
+        <f>Sum(AB2:AB9)</f>
+      </c>
+      <c r="AC10" s="4" t="str">
+        <f>Sum(AC2:AC9)</f>
+      </c>
+      <c r="AD10" s="4" t="str">
+        <f>Sum(AD2:AD9)</f>
+      </c>
+      <c r="AE10" s="4" t="str">
+        <f>Sum(AE2:AE9)</f>
+      </c>
+      <c r="AF10" s="4" t="str">
+        <f>Sum(AF2:AF9)</f>
+      </c>
+      <c r="AG10" s="4" t="str">
+        <f>Sum(AG2:AG9)</f>
+      </c>
+      <c r="AH10" s="4" t="str">
+        <f>Sum(AH2:AH9)</f>
+      </c>
+      <c r="AI10" s="4" t="str">
+        <f>Sum(AI2:AI9)</f>
+      </c>
+      <c r="AJ10" s="4" t="str">
+        <f>Sum(AJ2:AJ9)</f>
+      </c>
+      <c r="AK10" s="4" t="str">
+        <f>Sum(AK2:AK9)</f>
+      </c>
+      <c r="AL10" s="4" t="str">
+        <f>Sum(AL2:AL9)</f>
+      </c>
+      <c r="AM10" s="4" t="str">
+        <f>Sum(AM2:AM9)</f>
+      </c>
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4" t="n">
+        <v>55570172.3127924</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <v>138154345.243928</v>
+      </c>
+      <c r="V14" s="4" t="n">
+        <v>412747557.503748</v>
+      </c>
+      <c r="W14" s="4" t="n">
+        <v>222616120.324104</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>275775668.008922</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>323788654.674548</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>257372612.172356</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>378304143.346494</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>391547316.595614</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>177160515.090648</v>
+      </c>
+      <c r="AD14" s="4" t="n">
+        <v>258797373.029076</v>
+      </c>
+      <c r="AE14" s="4" t="n">
+        <v>215437048.821975</v>
+      </c>
+      <c r="AF14" s="4" t="n">
+        <v>160573672.682994</v>
+      </c>
+      <c r="AG14" s="4" t="n">
+        <v>218200755.725195</v>
+      </c>
+      <c r="AH14" s="4" t="n">
+        <v>86602008.2582143</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>118159754.914273</v>
+      </c>
+      <c r="AJ14" s="4" t="n">
+        <v>-6948173.0880723</v>
+      </c>
+      <c r="AK14" s="4" t="n">
+        <v>-50962.9447976474</v>
+      </c>
+      <c r="AL14" s="4" t="n">
+        <v>-92232.0313</v>
+      </c>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
+        <v>1233257.05425232</v>
+      </c>
+      <c r="V15" s="4" t="n">
+        <v>35788116.9038651</v>
+      </c>
+      <c r="W15" s="4" t="n">
+        <v>73064198.5797421</v>
+      </c>
+      <c r="X15" s="4" t="n">
+        <v>282082281.670903</v>
+      </c>
+      <c r="Y15" s="4" t="n">
+        <v>325493640.526917</v>
+      </c>
+      <c r="Z15" s="4" t="n">
+        <v>278248857.031421</v>
+      </c>
+      <c r="AA15" s="4" t="n">
+        <v>202219468.829891</v>
+      </c>
+      <c r="AB15" s="4" t="n">
+        <v>214349916.696011</v>
+      </c>
+      <c r="AC15" s="4" t="n">
+        <v>104424589.840217</v>
+      </c>
+      <c r="AD15" s="4" t="n">
+        <v>84396397.5938066</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>49034202.9310996</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>60997113.9810205</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>49198940.0544395</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>12513440.1386935</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>11240232.7184285</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>5084528.23796191</v>
+      </c>
+      <c r="AK15" s="4" t="n">
+        <v>-720941.257623723</v>
+      </c>
+      <c r="AL15" s="4" t="n">
+        <v>-1525872.512</v>
+      </c>
+      <c r="AM15" s="4" t="n">
+        <v>-434218.622673505</v>
+      </c>
+      <c r="AN15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="M16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4" t="n">
+        <v>1976423.28205882</v>
+      </c>
+      <c r="Z16" s="4" t="n">
+        <v>1101420.21025882</v>
+      </c>
+      <c r="AA16" s="4" t="n">
+        <v>3029043.04146131</v>
+      </c>
+      <c r="AB16" s="4" t="n">
+        <v>1669536.9593468</v>
+      </c>
+      <c r="AC16" s="4" t="n">
+        <v>-2084.19101909544</v>
+      </c>
+      <c r="AD16" s="4" t="n">
+        <v>2247523.81205201</v>
+      </c>
+      <c r="AE16" s="4" t="n">
+        <v>776572.49837973</v>
+      </c>
+      <c r="AF16" s="4" t="n">
+        <v>11643641.1921197</v>
+      </c>
+      <c r="AG16" s="4" t="n">
+        <v>-21768.8830515232</v>
+      </c>
+      <c r="AH16" s="4" t="n">
+        <v>261459.143033213</v>
+      </c>
+      <c r="AI16" s="4" t="n">
+        <v>42547.9979077894</v>
+      </c>
+      <c r="AJ16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="4" t="n">
+        <v>-16708</v>
+      </c>
+      <c r="AM16" s="4" t="n">
+        <v>25837148.8040839</v>
+      </c>
+      <c r="AN16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <f>M17</f>
+      </c>
+      <c r="B17" t="str">
+        <f>N17</f>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4" t="n">
+        <v>623074.717081572</v>
+      </c>
+      <c r="V17" s="4" t="n">
+        <v>681371.928420349</v>
+      </c>
+      <c r="W17" s="4" t="n">
+        <v>102071.735949383</v>
+      </c>
+      <c r="X17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="n">
+        <v>5208094.56092655</v>
+      </c>
+      <c r="Z17" s="4" t="n">
+        <v>421693.575589068</v>
+      </c>
+      <c r="AA17" s="4" t="n">
+        <v>1780936.70947953</v>
+      </c>
+      <c r="AB17" s="4" t="n">
+        <v>570707.229877591</v>
+      </c>
+      <c r="AC17" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4" t="n">
+        <v>-19742.7557344964</v>
+      </c>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <f>M18</f>
+      </c>
+      <c r="B18" t="str">
+        <f>N18</f>
+      </c>
+      <c r="M18" t="s">
+        <v>62</v>
+      </c>
+      <c r="N18" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4" t="n">
+        <v>6974103.6277655</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <f>M19</f>
+      </c>
+      <c r="B19" t="str">
+        <f>N19</f>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="4" t="n">
+        <v>6530240.64519346</v>
+      </c>
+      <c r="P19" s="4" t="n">
+        <v>15806138.0019651</v>
+      </c>
+      <c r="Q19" s="4" t="n">
+        <v>217207035.361116</v>
+      </c>
+      <c r="R19" s="4" t="n">
+        <v>54751405.8879899</v>
+      </c>
+      <c r="S19" s="4" t="n">
+        <v>25382482.3628351</v>
+      </c>
+      <c r="T19" s="4" t="n">
+        <v>33229291.0009774</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <v>92044776.2700284</v>
+      </c>
+      <c r="V19" s="4" t="n">
+        <v>151012824.886997</v>
+      </c>
+      <c r="W19" s="4" t="n">
+        <v>201308959.688475</v>
+      </c>
+      <c r="X19" s="4" t="n">
+        <v>505409037.724497</v>
+      </c>
+      <c r="Y19" s="4" t="n">
+        <v>712497417.939099</v>
+      </c>
+      <c r="Z19" s="4" t="n">
+        <v>535971897.128515</v>
+      </c>
+      <c r="AA19" s="4" t="n">
+        <v>817426767.349585</v>
+      </c>
+      <c r="AB19" s="4" t="n">
+        <v>267712566.609874</v>
+      </c>
+      <c r="AC19" s="4" t="n">
+        <v>515439319.577952</v>
+      </c>
+      <c r="AD19" s="4" t="n">
+        <v>605921366.479908</v>
+      </c>
+      <c r="AE19" s="4" t="n">
+        <v>124621695.342967</v>
+      </c>
+      <c r="AF19" s="4" t="n">
+        <v>-39360810.5636966</v>
+      </c>
+      <c r="AG19" s="4" t="n">
+        <v>59807734.3566304</v>
+      </c>
+      <c r="AH19" s="4" t="n">
+        <v>63895256.4190098</v>
+      </c>
+      <c r="AI19" s="4" t="n">
+        <v>13240956.2272142</v>
+      </c>
+      <c r="AJ19" s="4" t="n">
+        <v>9009933.83618028</v>
+      </c>
+      <c r="AK19" s="4" t="n">
+        <v>74166675.8610799</v>
+      </c>
+      <c r="AL19" s="4" t="n">
+        <v>126485665.8351</v>
+      </c>
+      <c r="AM19" s="4" t="n">
+        <v>17325159.5859982</v>
+      </c>
+      <c r="AN19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <f>M20</f>
+      </c>
+      <c r="B20" t="str">
+        <f>N20</f>
+      </c>
+      <c r="M20" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="n">
+        <v>162307.565541014</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>10162973.1057732</v>
+      </c>
+      <c r="W20" s="4" t="n">
+        <v>13451357.0384997</v>
+      </c>
+      <c r="X20" s="4" t="n">
+        <v>11695042.0615312</v>
+      </c>
+      <c r="Y20" s="4" t="n">
+        <v>2551554.07952611</v>
+      </c>
+      <c r="Z20" s="4" t="n">
+        <v>13659447.8555857</v>
+      </c>
+      <c r="AA20" s="4" t="n">
+        <v>13040448.4903178</v>
+      </c>
+      <c r="AB20" s="4" t="n">
+        <v>14102243.9595299</v>
+      </c>
+      <c r="AC20" s="4" t="n">
+        <v>14671670.6559491</v>
+      </c>
+      <c r="AD20" s="4" t="n">
+        <v>-5803843.77509428</v>
+      </c>
+      <c r="AE20" s="4" t="n">
+        <v>-2907089.94874056</v>
+      </c>
+      <c r="AF20" s="4" t="n">
+        <v>-1875926.34909967</v>
+      </c>
+      <c r="AG20" s="4" t="n">
+        <v>-6471846.89535889</v>
+      </c>
+      <c r="AH20" s="4" t="n">
+        <v>-28532109.9671236</v>
+      </c>
+      <c r="AI20" s="4" t="n">
+        <v>-1349583.13401715</v>
+      </c>
+      <c r="AJ20" s="4" t="n">
+        <v>-318120.493513502</v>
+      </c>
+      <c r="AK20" s="4" t="n">
+        <v>-746546.795097901</v>
+      </c>
+      <c r="AL20" s="4" t="n">
+        <v>-1512311.0995</v>
+      </c>
+      <c r="AM20" s="4" t="n">
+        <v>-927488.006430133</v>
+      </c>
+      <c r="AN20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <f>M21</f>
+      </c>
+      <c r="B21" t="str">
+        <f>N21</f>
+      </c>
+      <c r="M21" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <f>M22</f>
+      </c>
+      <c r="B22" t="str">
+        <f>N22</f>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -216,11 +216,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -256,12 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4210,72 +4212,72 @@
       <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5" t="n">
         <v>36996706</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>94966258</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="V2" s="5" t="n">
         <v>291530223.6377</v>
       </c>
-      <c r="W2" s="4" t="n">
+      <c r="W2" s="5" t="n">
         <v>160501718.3391</v>
       </c>
-      <c r="X2" s="4" t="n">
+      <c r="X2" s="5" t="n">
         <v>200861920.6744</v>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>237874715.834</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>192876599.8727</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>288647889.7173</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>304173278</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>140137784.36</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>206834371.37</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>173556806.5216</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>131542289.3849</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>182718778.2243</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>73860367.6256</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>102091499.5712</v>
       </c>
-      <c r="AJ2" s="4" t="n">
+      <c r="AJ2" s="5" t="n">
         <v>-6209926.14</v>
       </c>
-      <c r="AK2" s="4" t="n">
+      <c r="AK2" s="5" t="n">
         <v>-48733.5508</v>
       </c>
-      <c r="AL2" s="4" t="n">
+      <c r="AL2" s="5" t="n">
         <v>-92232.0313</v>
       </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -4290,70 +4292,70 @@
       <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5" t="n">
         <v>847731.625</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>25277721.2969</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>52677808.795</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>205455359.0377</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>239127301.4922</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>208521384.6559</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>154294432.0439</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>166517593.2435</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>82602100.3914</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>67450745.8785</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>39502117.7536</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>49968963.6842</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>41198620.9067</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>10672353.9961</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="5" t="n">
         <v>9711701.0321</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>4544294.5094</v>
       </c>
-      <c r="AK3" s="4" t="n">
+      <c r="AK3" s="5" t="n">
         <v>-689403.3997</v>
       </c>
-      <c r="AL3" s="4" t="n">
+      <c r="AL3" s="5" t="n">
         <v>-1525872.512</v>
       </c>
-      <c r="AM3" s="4" t="n">
+      <c r="AM3" s="5" t="n">
         <v>-445814.86</v>
       </c>
-      <c r="AN3" s="4"/>
+      <c r="AN3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -4368,62 +4370,62 @@
       <c r="N4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5" t="n">
         <v>1452000</v>
       </c>
-      <c r="Z4" s="4" t="n">
+      <c r="Z4" s="5" t="n">
         <v>825411</v>
       </c>
-      <c r="AA4" s="4" t="n">
+      <c r="AA4" s="5" t="n">
         <v>2311174.48</v>
       </c>
-      <c r="AB4" s="4" t="n">
+      <c r="AB4" s="5" t="n">
         <v>1296978.7</v>
       </c>
-      <c r="AC4" s="4" t="n">
+      <c r="AC4" s="5" t="n">
         <v>-1648.64</v>
       </c>
-      <c r="AD4" s="4" t="n">
+      <c r="AD4" s="5" t="n">
         <v>1796251.5205</v>
       </c>
-      <c r="AE4" s="4" t="n">
+      <c r="AE4" s="5" t="n">
         <v>625609.4</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>9538495.2813</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="5" t="n">
         <v>-18229.0098</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="5" t="n">
         <v>222991</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="5" t="n">
         <v>36762</v>
       </c>
-      <c r="AJ4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="4" t="n">
+      <c r="AJ4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5" t="n">
         <v>-16708</v>
       </c>
-      <c r="AM4" s="4" t="n">
+      <c r="AM4" s="5" t="n">
         <v>26527155.39</v>
       </c>
-      <c r="AN4" s="4"/>
+      <c r="AN4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -4438,52 +4440,52 @@
       <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4" t="n">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5" t="n">
         <v>428296.875</v>
       </c>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="5" t="n">
         <v>481263.9277</v>
       </c>
-      <c r="W5" s="4" t="n">
+      <c r="W5" s="5" t="n">
         <v>73591.6563</v>
       </c>
-      <c r="X5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4" t="n">
+      <c r="X5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5" t="n">
         <v>3826181.0469</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="5" t="n">
         <v>316019.7286</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>1358863.3166</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>443353.54</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5" t="n">
         <v>-15904.83</v>
       </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -4498,34 +4500,34 @@
       <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5" t="n">
         <v>5573798.23</v>
       </c>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -4540,82 +4542,82 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="4" t="n">
+      <c r="O7" s="5" t="n">
         <v>3884335</v>
       </c>
-      <c r="P7" s="4" t="n">
+      <c r="P7" s="5" t="n">
         <v>9629741</v>
       </c>
-      <c r="Q7" s="4" t="n">
+      <c r="Q7" s="5" t="n">
         <v>134413201</v>
       </c>
-      <c r="R7" s="4" t="n">
+      <c r="R7" s="5" t="n">
         <v>34531914</v>
       </c>
-      <c r="S7" s="4" t="n">
+      <c r="S7" s="5" t="n">
         <v>16399741</v>
       </c>
-      <c r="T7" s="4" t="n">
+      <c r="T7" s="5" t="n">
         <v>22122917</v>
       </c>
-      <c r="U7" s="4" t="n">
+      <c r="U7" s="5" t="n">
         <v>63270887.0313</v>
       </c>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="5" t="n">
         <v>106662781.6715</v>
       </c>
-      <c r="W7" s="4" t="n">
+      <c r="W7" s="5" t="n">
         <v>145139686.6499</v>
       </c>
-      <c r="X7" s="4" t="n">
+      <c r="X7" s="5" t="n">
         <v>368115979.109</v>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>523443667.2745</v>
       </c>
-      <c r="Z7" s="4" t="n">
+      <c r="Z7" s="5" t="n">
         <v>401660597.3453</v>
       </c>
-      <c r="AA7" s="4" t="n">
+      <c r="AA7" s="5" t="n">
         <v>623700574.1113</v>
       </c>
-      <c r="AB7" s="4" t="n">
+      <c r="AB7" s="5" t="n">
         <v>207972333.09</v>
       </c>
-      <c r="AC7" s="4" t="n">
+      <c r="AC7" s="5" t="n">
         <v>407723606.9263</v>
       </c>
-      <c r="AD7" s="4" t="n">
+      <c r="AD7" s="5" t="n">
         <v>484260576.02</v>
       </c>
-      <c r="AE7" s="4" t="n">
+      <c r="AE7" s="5" t="n">
         <v>100395654.254</v>
       </c>
-      <c r="AF7" s="4" t="n">
+      <c r="AF7" s="5" t="n">
         <v>-32244458.5534</v>
       </c>
-      <c r="AG7" s="4" t="n">
+      <c r="AG7" s="5" t="n">
         <v>50082302.0236</v>
       </c>
-      <c r="AH7" s="4" t="n">
+      <c r="AH7" s="5" t="n">
         <v>54494430.5976</v>
       </c>
-      <c r="AI7" s="4" t="n">
+      <c r="AI7" s="5" t="n">
         <v>11440351.0567</v>
       </c>
-      <c r="AJ7" s="4" t="n">
+      <c r="AJ7" s="5" t="n">
         <v>8052623.753</v>
       </c>
-      <c r="AK7" s="4" t="n">
+      <c r="AK7" s="5" t="n">
         <v>70922225.5522</v>
       </c>
-      <c r="AL7" s="4" t="n">
+      <c r="AL7" s="5" t="n">
         <v>126485665.8351</v>
       </c>
-      <c r="AM7" s="4" t="n">
+      <c r="AM7" s="5" t="n">
         <v>17787845.09</v>
       </c>
-      <c r="AN7" s="4"/>
+      <c r="AN7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4630,70 +4632,70 @@
       <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4" t="n">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="n">
         <v>111569</v>
       </c>
-      <c r="V8" s="4" t="n">
+      <c r="V8" s="5" t="n">
         <v>7178271</v>
       </c>
-      <c r="W8" s="4" t="n">
+      <c r="W8" s="5" t="n">
         <v>9698156.25</v>
       </c>
-      <c r="X8" s="4" t="n">
+      <c r="X8" s="5" t="n">
         <v>8518114.1172</v>
       </c>
-      <c r="Y8" s="4" t="n">
+      <c r="Y8" s="5" t="n">
         <v>1874525.8453</v>
       </c>
-      <c r="Z8" s="4" t="n">
+      <c r="Z8" s="5" t="n">
         <v>10236473.2451</v>
       </c>
-      <c r="AA8" s="4" t="n">
+      <c r="AA8" s="5" t="n">
         <v>9949925.2226</v>
       </c>
-      <c r="AB8" s="4" t="n">
+      <c r="AB8" s="5" t="n">
         <v>10955319.0394</v>
       </c>
-      <c r="AC8" s="4" t="n">
+      <c r="AC8" s="5" t="n">
         <v>11605607.59</v>
       </c>
-      <c r="AD8" s="4" t="n">
+      <c r="AD8" s="5" t="n">
         <v>-4638510.68</v>
       </c>
-      <c r="AE8" s="4" t="n">
+      <c r="AE8" s="5" t="n">
         <v>-2341961.3782</v>
       </c>
-      <c r="AF8" s="4" t="n">
+      <c r="AF8" s="5" t="n">
         <v>-1536762.799</v>
       </c>
-      <c r="AG8" s="4" t="n">
+      <c r="AG8" s="5" t="n">
         <v>-5419449.4132</v>
       </c>
-      <c r="AH8" s="4" t="n">
+      <c r="AH8" s="5" t="n">
         <v>-24334217.805</v>
       </c>
-      <c r="AI8" s="4" t="n">
+      <c r="AI8" s="5" t="n">
         <v>-1166056.6328</v>
       </c>
-      <c r="AJ8" s="4" t="n">
+      <c r="AJ8" s="5" t="n">
         <v>-284320.0282</v>
       </c>
-      <c r="AK8" s="4" t="n">
+      <c r="AK8" s="5" t="n">
         <v>-713888.8129</v>
       </c>
-      <c r="AL8" s="4" t="n">
+      <c r="AL8" s="5" t="n">
         <v>-1512311.0995</v>
       </c>
-      <c r="AM8" s="4" t="n">
+      <c r="AM8" s="5" t="n">
         <v>-952257.49</v>
       </c>
-      <c r="AN8" s="4"/>
+      <c r="AN8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -4708,44 +4710,44 @@
       <c r="N9" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4760,82 +4762,82 @@
       <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="4" t="str">
+      <c r="O10" s="5" t="str">
         <f>Sum(O2:O9)</f>
       </c>
-      <c r="P10" s="4" t="str">
+      <c r="P10" s="5" t="str">
         <f>Sum(P2:P9)</f>
       </c>
-      <c r="Q10" s="4" t="str">
+      <c r="Q10" s="5" t="str">
         <f>Sum(Q2:Q9)</f>
       </c>
-      <c r="R10" s="4" t="str">
+      <c r="R10" s="5" t="str">
         <f>Sum(R2:R9)</f>
       </c>
-      <c r="S10" s="4" t="str">
+      <c r="S10" s="5" t="str">
         <f>Sum(S2:S9)</f>
       </c>
-      <c r="T10" s="4" t="str">
+      <c r="T10" s="5" t="str">
         <f>Sum(T2:T9)</f>
       </c>
-      <c r="U10" s="4" t="str">
+      <c r="U10" s="5" t="str">
         <f>Sum(U2:U9)</f>
       </c>
-      <c r="V10" s="4" t="str">
+      <c r="V10" s="5" t="str">
         <f>Sum(V2:V9)</f>
       </c>
-      <c r="W10" s="4" t="str">
+      <c r="W10" s="5" t="str">
         <f>Sum(W2:W9)</f>
       </c>
-      <c r="X10" s="4" t="str">
+      <c r="X10" s="5" t="str">
         <f>Sum(X2:X9)</f>
       </c>
-      <c r="Y10" s="4" t="str">
+      <c r="Y10" s="5" t="str">
         <f>Sum(Y2:Y9)</f>
       </c>
-      <c r="Z10" s="4" t="str">
+      <c r="Z10" s="5" t="str">
         <f>Sum(Z2:Z9)</f>
       </c>
-      <c r="AA10" s="4" t="str">
+      <c r="AA10" s="5" t="str">
         <f>Sum(AA2:AA9)</f>
       </c>
-      <c r="AB10" s="4" t="str">
+      <c r="AB10" s="5" t="str">
         <f>Sum(AB2:AB9)</f>
       </c>
-      <c r="AC10" s="4" t="str">
+      <c r="AC10" s="5" t="str">
         <f>Sum(AC2:AC9)</f>
       </c>
-      <c r="AD10" s="4" t="str">
+      <c r="AD10" s="5" t="str">
         <f>Sum(AD2:AD9)</f>
       </c>
-      <c r="AE10" s="4" t="str">
+      <c r="AE10" s="5" t="str">
         <f>Sum(AE2:AE9)</f>
       </c>
-      <c r="AF10" s="4" t="str">
+      <c r="AF10" s="5" t="str">
         <f>Sum(AF2:AF9)</f>
       </c>
-      <c r="AG10" s="4" t="str">
+      <c r="AG10" s="5" t="str">
         <f>Sum(AG2:AG9)</f>
       </c>
-      <c r="AH10" s="4" t="str">
+      <c r="AH10" s="5" t="str">
         <f>Sum(AH2:AH9)</f>
       </c>
-      <c r="AI10" s="4" t="str">
+      <c r="AI10" s="5" t="str">
         <f>Sum(AI2:AI9)</f>
       </c>
-      <c r="AJ10" s="4" t="str">
+      <c r="AJ10" s="5" t="str">
         <f>Sum(AJ2:AJ9)</f>
       </c>
-      <c r="AK10" s="4" t="str">
+      <c r="AK10" s="5" t="str">
         <f>Sum(AK2:AK9)</f>
       </c>
-      <c r="AL10" s="4" t="str">
+      <c r="AL10" s="5" t="str">
         <f>Sum(AL2:AL9)</f>
       </c>
-      <c r="AM10" s="4" t="str">
+      <c r="AM10" s="5" t="str">
         <f>Sum(AM2:AM9)</f>
       </c>
-      <c r="AN10" s="4"/>
+      <c r="AN10" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -4939,72 +4941,72 @@
       <c r="N14" t="s">
         <v>57</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4" t="n">
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5" t="n">
         <v>55570172.3127924</v>
       </c>
-      <c r="U14" s="4" t="n">
+      <c r="U14" s="5" t="n">
         <v>138154345.243928</v>
       </c>
-      <c r="V14" s="4" t="n">
+      <c r="V14" s="5" t="n">
         <v>412747557.503748</v>
       </c>
-      <c r="W14" s="4" t="n">
+      <c r="W14" s="5" t="n">
         <v>222616120.324104</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>275775668.008922</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>323788654.674548</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="5" t="n">
         <v>257372612.172356</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <v>378304143.346494</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>391547316.595614</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="5" t="n">
         <v>177160515.090648</v>
       </c>
-      <c r="AD14" s="4" t="n">
+      <c r="AD14" s="5" t="n">
         <v>258797373.029076</v>
       </c>
-      <c r="AE14" s="4" t="n">
+      <c r="AE14" s="5" t="n">
         <v>215437048.821975</v>
       </c>
-      <c r="AF14" s="4" t="n">
+      <c r="AF14" s="5" t="n">
         <v>160573672.682994</v>
       </c>
-      <c r="AG14" s="4" t="n">
+      <c r="AG14" s="5" t="n">
         <v>218200755.725195</v>
       </c>
-      <c r="AH14" s="4" t="n">
+      <c r="AH14" s="5" t="n">
         <v>86602008.2582143</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="5" t="n">
         <v>118159754.914273</v>
       </c>
-      <c r="AJ14" s="4" t="n">
+      <c r="AJ14" s="5" t="n">
         <v>-6948173.0880723</v>
       </c>
-      <c r="AK14" s="4" t="n">
+      <c r="AK14" s="5" t="n">
         <v>-50962.9447976474</v>
       </c>
-      <c r="AL14" s="4" t="n">
+      <c r="AL14" s="5" t="n">
         <v>-92232.0313</v>
       </c>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -5019,70 +5021,70 @@
       <c r="N15" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="n">
         <v>1233257.05425232</v>
       </c>
-      <c r="V15" s="4" t="n">
+      <c r="V15" s="5" t="n">
         <v>35788116.9038651</v>
       </c>
-      <c r="W15" s="4" t="n">
+      <c r="W15" s="5" t="n">
         <v>73064198.5797421</v>
       </c>
-      <c r="X15" s="4" t="n">
+      <c r="X15" s="5" t="n">
         <v>282082281.670903</v>
       </c>
-      <c r="Y15" s="4" t="n">
+      <c r="Y15" s="5" t="n">
         <v>325493640.526917</v>
       </c>
-      <c r="Z15" s="4" t="n">
+      <c r="Z15" s="5" t="n">
         <v>278248857.031421</v>
       </c>
-      <c r="AA15" s="4" t="n">
+      <c r="AA15" s="5" t="n">
         <v>202219468.829891</v>
       </c>
-      <c r="AB15" s="4" t="n">
+      <c r="AB15" s="5" t="n">
         <v>214349916.696011</v>
       </c>
-      <c r="AC15" s="4" t="n">
+      <c r="AC15" s="5" t="n">
         <v>104424589.840217</v>
       </c>
-      <c r="AD15" s="4" t="n">
+      <c r="AD15" s="5" t="n">
         <v>84396397.5938066</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>49034202.9310996</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="5" t="n">
         <v>60997113.9810205</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="5" t="n">
         <v>49198940.0544395</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="5" t="n">
         <v>12513440.1386935</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="5" t="n">
         <v>11240232.7184285</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="5" t="n">
         <v>5084528.23796191</v>
       </c>
-      <c r="AK15" s="4" t="n">
+      <c r="AK15" s="5" t="n">
         <v>-720941.257623723</v>
       </c>
-      <c r="AL15" s="4" t="n">
+      <c r="AL15" s="5" t="n">
         <v>-1525872.512</v>
       </c>
-      <c r="AM15" s="4" t="n">
+      <c r="AM15" s="5" t="n">
         <v>-434218.622673505</v>
       </c>
-      <c r="AN15" s="4"/>
+      <c r="AN15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -5097,62 +5099,62 @@
       <c r="N16" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4" t="n">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5" t="n">
         <v>1976423.28205882</v>
       </c>
-      <c r="Z16" s="4" t="n">
+      <c r="Z16" s="5" t="n">
         <v>1101420.21025882</v>
       </c>
-      <c r="AA16" s="4" t="n">
+      <c r="AA16" s="5" t="n">
         <v>3029043.04146131</v>
       </c>
-      <c r="AB16" s="4" t="n">
+      <c r="AB16" s="5" t="n">
         <v>1669536.9593468</v>
       </c>
-      <c r="AC16" s="4" t="n">
+      <c r="AC16" s="5" t="n">
         <v>-2084.19101909544</v>
       </c>
-      <c r="AD16" s="4" t="n">
+      <c r="AD16" s="5" t="n">
         <v>2247523.81205201</v>
       </c>
-      <c r="AE16" s="4" t="n">
+      <c r="AE16" s="5" t="n">
         <v>776572.49837973</v>
       </c>
-      <c r="AF16" s="4" t="n">
+      <c r="AF16" s="5" t="n">
         <v>11643641.1921197</v>
       </c>
-      <c r="AG16" s="4" t="n">
+      <c r="AG16" s="5" t="n">
         <v>-21768.8830515232</v>
       </c>
-      <c r="AH16" s="4" t="n">
+      <c r="AH16" s="5" t="n">
         <v>261459.143033213</v>
       </c>
-      <c r="AI16" s="4" t="n">
+      <c r="AI16" s="5" t="n">
         <v>42547.9979077894</v>
       </c>
-      <c r="AJ16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="4" t="n">
+      <c r="AJ16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="5" t="n">
         <v>-16708</v>
       </c>
-      <c r="AM16" s="4" t="n">
+      <c r="AM16" s="5" t="n">
         <v>25837148.8040839</v>
       </c>
-      <c r="AN16" s="4"/>
+      <c r="AN16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -5167,52 +5169,52 @@
       <c r="N17" t="s">
         <v>61</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="n">
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="n">
         <v>623074.717081572</v>
       </c>
-      <c r="V17" s="4" t="n">
+      <c r="V17" s="5" t="n">
         <v>681371.928420349</v>
       </c>
-      <c r="W17" s="4" t="n">
+      <c r="W17" s="5" t="n">
         <v>102071.735949383</v>
       </c>
-      <c r="X17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="4" t="n">
+      <c r="X17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5" t="n">
         <v>5208094.56092655</v>
       </c>
-      <c r="Z17" s="4" t="n">
+      <c r="Z17" s="5" t="n">
         <v>421693.575589068</v>
       </c>
-      <c r="AA17" s="4" t="n">
+      <c r="AA17" s="5" t="n">
         <v>1780936.70947953</v>
       </c>
-      <c r="AB17" s="4" t="n">
+      <c r="AB17" s="5" t="n">
         <v>570707.229877591</v>
       </c>
-      <c r="AC17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4" t="n">
+      <c r="AC17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5" t="n">
         <v>-19742.7557344964</v>
       </c>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -5227,34 +5229,34 @@
       <c r="N18" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4" t="n">
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5" t="n">
         <v>6974103.6277655</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -5269,82 +5271,82 @@
       <c r="N19" t="s">
         <v>63</v>
       </c>
-      <c r="O19" s="4" t="n">
+      <c r="O19" s="5" t="n">
         <v>6530240.64519346</v>
       </c>
-      <c r="P19" s="4" t="n">
+      <c r="P19" s="5" t="n">
         <v>15806138.0019651</v>
       </c>
-      <c r="Q19" s="4" t="n">
+      <c r="Q19" s="5" t="n">
         <v>217207035.361116</v>
       </c>
-      <c r="R19" s="4" t="n">
+      <c r="R19" s="5" t="n">
         <v>54751405.8879899</v>
       </c>
-      <c r="S19" s="4" t="n">
+      <c r="S19" s="5" t="n">
         <v>25382482.3628351</v>
       </c>
-      <c r="T19" s="4" t="n">
+      <c r="T19" s="5" t="n">
         <v>33229291.0009774</v>
       </c>
-      <c r="U19" s="4" t="n">
+      <c r="U19" s="5" t="n">
         <v>92044776.2700284</v>
       </c>
-      <c r="V19" s="4" t="n">
+      <c r="V19" s="5" t="n">
         <v>151012824.886997</v>
       </c>
-      <c r="W19" s="4" t="n">
+      <c r="W19" s="5" t="n">
         <v>201308959.688475</v>
       </c>
-      <c r="X19" s="4" t="n">
+      <c r="X19" s="5" t="n">
         <v>505409037.724497</v>
       </c>
-      <c r="Y19" s="4" t="n">
+      <c r="Y19" s="5" t="n">
         <v>712497417.939099</v>
       </c>
-      <c r="Z19" s="4" t="n">
+      <c r="Z19" s="5" t="n">
         <v>535971897.128515</v>
       </c>
-      <c r="AA19" s="4" t="n">
+      <c r="AA19" s="5" t="n">
         <v>817426767.349585</v>
       </c>
-      <c r="AB19" s="4" t="n">
+      <c r="AB19" s="5" t="n">
         <v>267712566.609874</v>
       </c>
-      <c r="AC19" s="4" t="n">
+      <c r="AC19" s="5" t="n">
         <v>515439319.577952</v>
       </c>
-      <c r="AD19" s="4" t="n">
+      <c r="AD19" s="5" t="n">
         <v>605921366.479908</v>
       </c>
-      <c r="AE19" s="4" t="n">
+      <c r="AE19" s="5" t="n">
         <v>124621695.342967</v>
       </c>
-      <c r="AF19" s="4" t="n">
+      <c r="AF19" s="5" t="n">
         <v>-39360810.5636966</v>
       </c>
-      <c r="AG19" s="4" t="n">
+      <c r="AG19" s="5" t="n">
         <v>59807734.3566304</v>
       </c>
-      <c r="AH19" s="4" t="n">
+      <c r="AH19" s="5" t="n">
         <v>63895256.4190098</v>
       </c>
-      <c r="AI19" s="4" t="n">
+      <c r="AI19" s="5" t="n">
         <v>13240956.2272142</v>
       </c>
-      <c r="AJ19" s="4" t="n">
+      <c r="AJ19" s="5" t="n">
         <v>9009933.83618028</v>
       </c>
-      <c r="AK19" s="4" t="n">
+      <c r="AK19" s="5" t="n">
         <v>74166675.8610799</v>
       </c>
-      <c r="AL19" s="4" t="n">
+      <c r="AL19" s="5" t="n">
         <v>126485665.8351</v>
       </c>
-      <c r="AM19" s="4" t="n">
+      <c r="AM19" s="5" t="n">
         <v>17325159.5859982</v>
       </c>
-      <c r="AN19" s="4"/>
+      <c r="AN19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -5359,70 +5361,70 @@
       <c r="N20" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4" t="n">
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="n">
         <v>162307.565541014</v>
       </c>
-      <c r="V20" s="4" t="n">
+      <c r="V20" s="5" t="n">
         <v>10162973.1057732</v>
       </c>
-      <c r="W20" s="4" t="n">
+      <c r="W20" s="5" t="n">
         <v>13451357.0384997</v>
       </c>
-      <c r="X20" s="4" t="n">
+      <c r="X20" s="5" t="n">
         <v>11695042.0615312</v>
       </c>
-      <c r="Y20" s="4" t="n">
+      <c r="Y20" s="5" t="n">
         <v>2551554.07952611</v>
       </c>
-      <c r="Z20" s="4" t="n">
+      <c r="Z20" s="5" t="n">
         <v>13659447.8555857</v>
       </c>
-      <c r="AA20" s="4" t="n">
+      <c r="AA20" s="5" t="n">
         <v>13040448.4903178</v>
       </c>
-      <c r="AB20" s="4" t="n">
+      <c r="AB20" s="5" t="n">
         <v>14102243.9595299</v>
       </c>
-      <c r="AC20" s="4" t="n">
+      <c r="AC20" s="5" t="n">
         <v>14671670.6559491</v>
       </c>
-      <c r="AD20" s="4" t="n">
+      <c r="AD20" s="5" t="n">
         <v>-5803843.77509428</v>
       </c>
-      <c r="AE20" s="4" t="n">
+      <c r="AE20" s="5" t="n">
         <v>-2907089.94874056</v>
       </c>
-      <c r="AF20" s="4" t="n">
+      <c r="AF20" s="5" t="n">
         <v>-1875926.34909967</v>
       </c>
-      <c r="AG20" s="4" t="n">
+      <c r="AG20" s="5" t="n">
         <v>-6471846.89535889</v>
       </c>
-      <c r="AH20" s="4" t="n">
+      <c r="AH20" s="5" t="n">
         <v>-28532109.9671236</v>
       </c>
-      <c r="AI20" s="4" t="n">
+      <c r="AI20" s="5" t="n">
         <v>-1349583.13401715</v>
       </c>
-      <c r="AJ20" s="4" t="n">
+      <c r="AJ20" s="5" t="n">
         <v>-318120.493513502</v>
       </c>
-      <c r="AK20" s="4" t="n">
+      <c r="AK20" s="5" t="n">
         <v>-746546.795097901</v>
       </c>
-      <c r="AL20" s="4" t="n">
+      <c r="AL20" s="5" t="n">
         <v>-1512311.0995</v>
       </c>
-      <c r="AM20" s="4" t="n">
+      <c r="AM20" s="5" t="n">
         <v>-927488.006430133</v>
       </c>
-      <c r="AN20" s="4"/>
+      <c r="AN20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -5437,44 +5439,44 @@
       <c r="N21" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -5483,32 +5485,32 @@
       <c r="B22" t="str">
         <f>N22</f>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
+++ b/Output/PBL/Platform/Electronics_Comms_and_Sensors/DoD_Electronics_Comms_and_Sensors_Contracts.xlsx
@@ -217,11 +217,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -259,11 +259,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
